--- a/tables/autoCalibration.xlsx
+++ b/tables/autoCalibration.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EDFA\GreatUniter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\greatuniter\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50408C63-2D33-432F-9E55-0DD4188A2774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="-17310" yWindow="1485" windowWidth="16200" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
-    <sheet name="ResultSample" sheetId="4" r:id="rId2"/>
-    <sheet name="Pin" sheetId="1" r:id="rId3"/>
-    <sheet name="Pout" sheetId="2" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId5"/>
+    <sheet name="ExtraInfo" sheetId="6" r:id="rId2"/>
+    <sheet name="ResultSample" sheetId="4" r:id="rId3"/>
+    <sheet name="Pin" sheetId="1" r:id="rId4"/>
+    <sheet name="Pout" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Attenuation for Input Power dBm</t>
   </si>
@@ -111,9 +118,6 @@
     <t>Input Power Real mW</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>InputPowerRealMW</t>
   </si>
   <si>
@@ -160,12 +164,66 @@
   </si>
   <si>
     <t>POUT_2</t>
+  </si>
+  <si>
+    <t>VD_ADDRESS_NAME</t>
+  </si>
+  <si>
+    <t>OFFSET_ADDRESS_NAME</t>
+  </si>
+  <si>
+    <t>COEFF_ADDRESS_NAME</t>
+  </si>
+  <si>
+    <t>OPTICAL_LINE</t>
+  </si>
+  <si>
+    <t>COEFF_Pin1_1</t>
+  </si>
+  <si>
+    <t>COEFF_Pin2_1</t>
+  </si>
+  <si>
+    <t>COEFF_Pin2_2</t>
+  </si>
+  <si>
+    <t>COEFF_Pin1_2</t>
+  </si>
+  <si>
+    <t>COEFF_Pout2_2</t>
+  </si>
+  <si>
+    <t>COEFF_Pout1_2</t>
+  </si>
+  <si>
+    <t>COEFF_Pout2_1</t>
+  </si>
+  <si>
+    <t>COEFF_Pout1_1</t>
+  </si>
+  <si>
+    <t>COEFF_LDD4</t>
+  </si>
+  <si>
+    <t>COEFF_LDD3</t>
+  </si>
+  <si>
+    <t>COEFF_LDD1</t>
+  </si>
+  <si>
+    <t>COEFF_LDD2</t>
+  </si>
+  <si>
+    <t>OFFSET_VALUE</t>
+  </si>
+  <si>
+    <t>COEFF_VALUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,12 +300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,6 +322,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +608,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -559,55 +622,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -617,10 +680,259 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ED81C8-4AB2-442D-B2A4-15CF4CBC4B9C}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="str">
+        <f>CONCATENATE("OFFSET_",A2)</f>
+        <v>OFFSET_ADC1CH0_VD8_LDD3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="14" t="str">
+        <f t="shared" ref="B3:B13" si="0">CONCATENATE("OFFSET_",A3)</f>
+        <v>OFFSET_ADC1CH1_VD7_LDD1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC1CH2_VD6_Pout_L2_1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC1CH3_VD5_Pout_L1_1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC1CH4_VD4_Pin_L2_1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC1CH5_VD3_Pin_L1_1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC2CH0_VD14_LDD4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OFFSET_ADC2CH1_VD13_LDD2 </v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC2CH2_VD12_Pout_L2_2</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC2CH3_VD11_Pout_L1_2</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC2CH4_VD10_Pin_L2_2</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSET_ADC2CH5_VD9_Pin_L1_2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -628,106 +940,106 @@
     <col min="2" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -736,332 +1048,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="12.140625" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>-10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="12">
+      <c r="B2" s="4"/>
+      <c r="C2" s="9">
         <v>0.5</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>-5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="12">
+      <c r="B3" s="4"/>
+      <c r="C3" s="9">
         <v>0.5</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="12">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9">
         <v>0.5</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9">
         <v>0.5</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9">
         <v>0.5</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="12" width="9.28515625" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>-30</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>-30</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="2">
-        <v>1100</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1100</v>
-      </c>
-      <c r="H3" s="2">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>-30</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="2">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="2">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>-30</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="2">
-        <v>1300</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1300</v>
-      </c>
-      <c r="H5" s="2">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>-30</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="2">
-        <v>1350</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1350</v>
-      </c>
-      <c r="H6" s="2">
-        <v>15</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>-30</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="2">
-        <v>1400</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1400</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,199 +1162,218 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A3:A13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="9.28515625" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>-45</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>-40</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>-35</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>-30</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>-25</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>-20</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>-15</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>-10</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>-5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="2">
+        <v>1100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1100</v>
+      </c>
+      <c r="H3" s="2">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="2">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="2">
+        <v>1300</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1300</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="2">
+        <v>1350</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1350</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="2">
+        <v>1400</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1400</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
